--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_03-04_end.xlsx
@@ -580,7 +580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoshiguma"]   My "Hannya" is not something you can penetrate.
+    <t xml:space="preserve">[name="Hoshiguma"]   My 'Hannya' is not something you can penetrate.
 </t>
   </si>
   <si>
